--- a/02矽佳EMS/其它/借机审核邮件.xlsx
+++ b/02矽佳EMS/其它/借机审核邮件.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="22365" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="借机单邮件发送" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>3h 接收 邮件</t>
   </si>
@@ -46,10 +46,7 @@
     <t>XJ-002</t>
   </si>
   <si>
-    <t>BO202204280015</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>BO202205090007</t>
   </si>
   <si>
     <t>主管的主管</t>
@@ -58,10 +55,7 @@
     <t>KK64738</t>
   </si>
   <si>
-    <t>王</t>
-  </si>
-  <si>
-    <t>BO202204280016</t>
+    <t>BO202205090008</t>
   </si>
   <si>
     <t>会签一组</t>
@@ -73,16 +67,16 @@
     <t>石/尤/王</t>
   </si>
   <si>
-    <t>BO202204280017</t>
+    <t>BO202205090009</t>
   </si>
   <si>
     <t>借机主管</t>
   </si>
   <si>
-    <t>TZ200/TZ105</t>
-  </si>
-  <si>
-    <t>BO202204280020</t>
+    <t>TZ105</t>
+  </si>
+  <si>
+    <t>BO202205090010</t>
   </si>
   <si>
     <t>会签二组</t>
@@ -91,7 +85,7 @@
     <t>KK57613</t>
   </si>
   <si>
-    <t>BO202204280021</t>
+    <t>BO202205090011</t>
   </si>
 </sst>
 </file>
@@ -100,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +104,120 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,15 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,116 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +260,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,97 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,61 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,6 +557,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,20 +791,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -823,8 +817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="3359150"/>
-          <a:ext cx="7200900" cy="2505075"/>
+          <a:off x="8401050" y="171450"/>
+          <a:ext cx="11572875" cy="3028950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,20 +833,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -865,8 +859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9972675" y="3346450"/>
-          <a:ext cx="7096125" cy="2524125"/>
+          <a:off x="8401050" y="3346450"/>
+          <a:ext cx="11039475" cy="2895600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,20 +875,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -907,8 +901,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="6089650"/>
-          <a:ext cx="7448550" cy="2609850"/>
+          <a:off x="8401050" y="6432550"/>
+          <a:ext cx="11391900" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="9690100"/>
+          <a:ext cx="10991850" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="12947650"/>
+          <a:ext cx="10915650" cy="3105150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,129 +1260,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H10"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="6" width="22.875" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="28" customHeight="1" spans="2:7">
-      <c r="B4" t="s">
+    <row r="2" ht="28" customHeight="1" spans="2:7">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="4:7">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="4:7">
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="4:7">
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" ht="28" customHeight="1" spans="4:8">
+    <row r="6" ht="28" customHeight="1" spans="4:7">
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="4:7">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="4:8">
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="4:7">
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="4:8">
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="4:8">
-      <c r="D10" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
